--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_7_12.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_7_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-615241.3968311539</v>
+        <v>-618121.7716449829</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9777368.694373155</v>
+        <v>9777368.694373149</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>325.239946071737</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>105.554580438191</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -722,7 +722,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -829,16 +829,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>38.06452392610819</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>184.4424805593809</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -896,10 +896,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,7 +908,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>247.5322584324356</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>250.4044428170433</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1057,25 +1057,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>4.564134925390867</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>48.9140155965814</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>294.574754059319</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748118</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>93.67762975589579</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250821</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229336</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1297,19 +1297,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>76.37590626022346</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>8.389005322401447</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1385,7 +1385,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>211.5253521301642</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292595</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>26.10534953101996</v>
       </c>
       <c r="T11" t="n">
         <v>203.9179701396201</v>
@@ -1531,22 +1531,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>42.01201317445361</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>206.3669734826435</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1619,13 +1619,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8432760127569</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H14" t="n">
-        <v>283.5630920045443</v>
+        <v>283.5630920045434</v>
       </c>
       <c r="I14" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.61259060081949</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T14" t="n">
-        <v>199.1970568374741</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U14" t="n">
         <v>250.9088959876463</v>
@@ -1701,7 +1701,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>84.02406320561452</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>77.41481868121856</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1780,10 +1780,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440895</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108344</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.3384883584589</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4819944627618</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>152.0073203384156</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>84.61259060081949</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T17" t="n">
-        <v>199.1970568374741</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U17" t="n">
         <v>250.9088959876463</v>
@@ -1938,7 +1938,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H18" t="n">
-        <v>84.02406320561452</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2005,13 +2005,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>5.313812950988587</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>2.119387955709733</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.3384883584589</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T19" t="n">
         <v>217.4819944627618</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T20" t="n">
         <v>199.1970568374742</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560524</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2175,7 +2175,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H21" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>89.5340822374514</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I22" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>67.18075159108355</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S22" t="n">
         <v>181.338488358459</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U22" t="n">
-        <v>252.4632162199099</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T23" t="n">
         <v>199.1970568374742</v>
@@ -2412,7 +2412,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H24" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>65.0939796739443</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>2.119387955707482</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.338488358459</v>
@@ -2536,7 +2536,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2649,7 +2649,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>108.3106907504111</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2770,16 +2770,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>138.1441996497202</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634785</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2886,7 +2886,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2962,13 +2962,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>55.52079624060383</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>150.3341561773493</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3187,22 +3187,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>24.83266606353065</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3241,7 +3241,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3427,22 +3427,22 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261733</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002295</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3667,19 +3667,19 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308922</v>
       </c>
       <c r="G40" t="n">
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652614</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -4135,25 +4135,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652583</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4198,7 +4198,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
         <v>194.3000058600551</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>999.4901647174274</v>
+        <v>1157.367208492925</v>
       </c>
       <c r="C2" t="n">
-        <v>999.4901647174274</v>
+        <v>1157.367208492925</v>
       </c>
       <c r="D2" t="n">
-        <v>641.224466110677</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="E2" t="n">
-        <v>641.224466110677</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="F2" t="n">
-        <v>534.603677789272</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2443.387305656314</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V2" t="n">
-        <v>2112.324418312743</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W2" t="n">
-        <v>1759.555763042629</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X2" t="n">
-        <v>1386.090004781549</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="Y2" t="n">
-        <v>1386.090004781549</v>
+        <v>1485.892406545185</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4398,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4407,31 +4407,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>261.391796148808</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="C4" t="n">
-        <v>261.391796148808</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="D4" t="n">
-        <v>261.391796148808</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="E4" t="n">
-        <v>261.391796148808</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="F4" t="n">
-        <v>261.391796148808</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="G4" t="n">
-        <v>92.39199588714041</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H4" t="n">
-        <v>92.39199588714041</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>550.5654064942401</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T4" t="n">
-        <v>550.5654064942401</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U4" t="n">
-        <v>261.391796148808</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="V4" t="n">
-        <v>261.391796148808</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="W4" t="n">
-        <v>261.391796148808</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="X4" t="n">
-        <v>261.391796148808</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="Y4" t="n">
-        <v>261.391796148808</v>
+        <v>393.6767897220517</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1780.41262192169</v>
+        <v>1623.178216428726</v>
       </c>
       <c r="C5" t="n">
-        <v>1780.41262192169</v>
+        <v>1254.215699488314</v>
       </c>
       <c r="D5" t="n">
-        <v>1422.14692331494</v>
+        <v>1254.215699488314</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>868.4274468900699</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>457.4415421004623</v>
       </c>
       <c r="G5" t="n">
         <v>207.4089578252748</v>
@@ -4565,19 +4565,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2170.551953897502</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W5" t="n">
-        <v>2170.551953897502</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X5" t="n">
-        <v>2170.551953897502</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="Y5" t="n">
-        <v>1780.41262192169</v>
+        <v>1623.178216428726</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4644,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>409.5384547146241</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>409.5384547146241</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D7" t="n">
-        <v>409.5384547146241</v>
+        <v>578.0123447940985</v>
       </c>
       <c r="E7" t="n">
-        <v>409.5384547146241</v>
+        <v>430.0992512117053</v>
       </c>
       <c r="F7" t="n">
-        <v>404.9282174162495</v>
+        <v>430.0992512117053</v>
       </c>
       <c r="G7" t="n">
-        <v>235.9284171545819</v>
+        <v>261.0994509500377</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545819</v>
+        <v>103.3510783825679</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>409.5384547146241</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>409.5384547146241</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>409.5384547146241</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>409.5384547146241</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>409.5384547146241</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1670.695888779113</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="C8" t="n">
-        <v>1301.733371838701</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="D8" t="n">
-        <v>1301.733371838701</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E8" t="n">
-        <v>915.9451192404572</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>504.9592144508496</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252749</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252749</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733125</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,34 +4820,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791251</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548714</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548714</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548714</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U8" t="n">
-        <v>2388.358616186806</v>
+        <v>2426.347734892094</v>
       </c>
       <c r="V8" t="n">
-        <v>2057.295728843235</v>
+        <v>2095.284847548523</v>
       </c>
       <c r="W8" t="n">
-        <v>2057.295728843235</v>
+        <v>2095.284847548523</v>
       </c>
       <c r="X8" t="n">
-        <v>2057.295728843235</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="Y8" t="n">
-        <v>2057.295728843235</v>
+        <v>1721.819089287443</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204942</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615926</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572642</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315295</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414846</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.07275543519</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.317569050018</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>438.9553738610018</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="C10" t="n">
-        <v>438.9553738610018</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>288.8387344486661</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>288.8387344486661</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>288.8387344486661</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>288.8387344486661</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>131.0903618811962</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866325</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477908</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658207</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502497</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594897</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064339</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064339</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064339</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064339</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064339</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>438.9553738610018</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>438.9553738610018</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>438.9553738610018</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>438.9553738610018</v>
+        <v>719.6552414565338</v>
       </c>
       <c r="Y10" t="n">
-        <v>438.9553738610018</v>
+        <v>498.8626623130036</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2288.582041850806</v>
+        <v>2372.503670393389</v>
       </c>
       <c r="C11" t="n">
-        <v>1919.619524910395</v>
+        <v>2003.541153452977</v>
       </c>
       <c r="D11" t="n">
-        <v>1561.353826303644</v>
+        <v>1645.275454846226</v>
       </c>
       <c r="E11" t="n">
-        <v>1175.5655737054</v>
+        <v>1259.487202247982</v>
       </c>
       <c r="F11" t="n">
-        <v>764.5796689157926</v>
+        <v>848.5012974583747</v>
       </c>
       <c r="G11" t="n">
-        <v>349.507218760789</v>
+        <v>433.4288473033711</v>
       </c>
       <c r="H11" t="n">
         <v>135.8452469121383</v>
@@ -5039,22 +5039,22 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J11" t="n">
-        <v>282.7274791106325</v>
+        <v>450.1331281309855</v>
       </c>
       <c r="K11" t="n">
-        <v>616.546852800479</v>
+        <v>1104.856460266285</v>
       </c>
       <c r="L11" t="n">
-        <v>1481.065668453834</v>
+        <v>1969.37527591964</v>
       </c>
       <c r="M11" t="n">
-        <v>2459.615971283662</v>
+        <v>2502.907180591564</v>
       </c>
       <c r="N11" t="n">
-        <v>3439.368243510309</v>
+        <v>3049.685997650347</v>
       </c>
       <c r="O11" t="n">
-        <v>3990.339612910689</v>
+        <v>3929.650647979801</v>
       </c>
       <c r="P11" t="n">
         <v>4385.113979267867</v>
@@ -5066,25 +5066,25 @@
         <v>4692.417407580351</v>
       </c>
       <c r="S11" t="n">
-        <v>4582.126739107446</v>
+        <v>4666.048367650028</v>
       </c>
       <c r="T11" t="n">
-        <v>4376.148991491668</v>
+        <v>4460.07062003425</v>
       </c>
       <c r="U11" t="n">
-        <v>4122.618514765505</v>
+        <v>4206.540143308087</v>
       </c>
       <c r="V11" t="n">
-        <v>3791.555627421934</v>
+        <v>3875.477255964517</v>
       </c>
       <c r="W11" t="n">
-        <v>3438.78697215182</v>
+        <v>3522.708600694402</v>
       </c>
       <c r="X11" t="n">
-        <v>3065.32121389074</v>
+        <v>3149.242842433322</v>
       </c>
       <c r="Y11" t="n">
-        <v>2675.181881914928</v>
+        <v>2759.103510457511</v>
       </c>
     </row>
     <row r="12">
@@ -5109,22 +5109,22 @@
         <v>339.7206342795828</v>
       </c>
       <c r="G12" t="n">
-        <v>203.3575341122015</v>
+        <v>203.3575341122016</v>
       </c>
       <c r="H12" t="n">
         <v>112.8556397500691</v>
       </c>
       <c r="I12" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J12" t="n">
-        <v>187.525617642224</v>
+        <v>187.5256176422243</v>
       </c>
       <c r="K12" t="n">
-        <v>425.7898166225712</v>
+        <v>425.7898166225715</v>
       </c>
       <c r="L12" t="n">
-        <v>792.4879769352362</v>
+        <v>792.4879769352366</v>
       </c>
       <c r="M12" t="n">
         <v>1239.764302157552</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>684.9852154263884</v>
+        <v>450.877509218691</v>
       </c>
       <c r="C13" t="n">
-        <v>684.9852154263884</v>
+        <v>450.877509218691</v>
       </c>
       <c r="D13" t="n">
-        <v>534.8685760140527</v>
+        <v>450.877509218691</v>
       </c>
       <c r="E13" t="n">
-        <v>386.9554824316596</v>
+        <v>450.877509218691</v>
       </c>
       <c r="F13" t="n">
-        <v>240.0655349337492</v>
+        <v>303.9875617207806</v>
       </c>
       <c r="G13" t="n">
-        <v>240.0655349337492</v>
+        <v>136.2847250954996</v>
       </c>
       <c r="H13" t="n">
-        <v>93.84834815160703</v>
+        <v>136.2847250954996</v>
       </c>
       <c r="I13" t="n">
         <v>93.84834815160703</v>
@@ -5227,22 +5227,22 @@
         <v>1954.630779807916</v>
       </c>
       <c r="T13" t="n">
-        <v>1954.630779807916</v>
+        <v>1732.864164377443</v>
       </c>
       <c r="U13" t="n">
-        <v>1665.52791293356</v>
+        <v>1443.761297503086</v>
       </c>
       <c r="V13" t="n">
-        <v>1410.843424727673</v>
+        <v>1189.076809297199</v>
       </c>
       <c r="W13" t="n">
-        <v>1121.426254690712</v>
+        <v>899.6596392602385</v>
       </c>
       <c r="X13" t="n">
-        <v>893.436703792695</v>
+        <v>671.6700883622211</v>
       </c>
       <c r="Y13" t="n">
-        <v>684.9852154263884</v>
+        <v>450.877509218691</v>
       </c>
     </row>
     <row r="14">
@@ -5267,37 +5267,37 @@
         <v>794.2588208963555</v>
       </c>
       <c r="G14" t="n">
-        <v>380.2757138127627</v>
+        <v>380.2757138127619</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8483481516068</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I14" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J14" t="n">
-        <v>373.3442236507205</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K14" t="n">
-        <v>842.9746074384032</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L14" t="n">
-        <v>1462.494387944179</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M14" t="n">
-        <v>2183.498949883217</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N14" t="n">
-        <v>2920.783927800325</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O14" t="n">
-        <v>3654.445485610256</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P14" t="n">
-        <v>4202.751434297605</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q14" t="n">
-        <v>4566.333620403612</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R14" t="n">
         <v>4692.417407580351</v>
@@ -5358,22 +5358,22 @@
         <v>93.84834815160703</v>
       </c>
       <c r="K15" t="n">
-        <v>424.3570907149663</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="L15" t="n">
-        <v>915.0894235587183</v>
+        <v>142.6767696327857</v>
       </c>
       <c r="M15" t="n">
-        <v>1281.571598885105</v>
+        <v>734.6951238849133</v>
       </c>
       <c r="N15" t="n">
-        <v>1903.667562284443</v>
+        <v>1356.791087284249</v>
       </c>
       <c r="O15" t="n">
-        <v>1903.667562284443</v>
+        <v>1903.667562284444</v>
       </c>
       <c r="P15" t="n">
-        <v>2323.251080710519</v>
+        <v>2323.25108071052</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.812354695766</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>790.3350971725662</v>
+        <v>849.5769285337227</v>
       </c>
       <c r="C16" t="n">
-        <v>621.3989142446593</v>
+        <v>680.6407456058158</v>
       </c>
       <c r="D16" t="n">
-        <v>471.2822748323235</v>
+        <v>530.5241061934801</v>
       </c>
       <c r="E16" t="n">
-        <v>323.3691812499304</v>
+        <v>382.6110126110869</v>
       </c>
       <c r="F16" t="n">
-        <v>176.4792337520201</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="G16" t="n">
-        <v>176.4792337520201</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="H16" t="n">
-        <v>176.4792337520201</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I16" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J16" t="n">
-        <v>172.8304710411611</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K16" t="n">
-        <v>432.4591980117227</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L16" t="n">
-        <v>820.2210160948573</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M16" t="n">
-        <v>1239.450608139317</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N16" t="n">
-        <v>1654.146473931024</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O16" t="n">
-        <v>2021.168930946054</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P16" t="n">
-        <v>2311.699365782259</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q16" t="n">
-        <v>2429.412499335694</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R16" t="n">
-        <v>2361.553154294196</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="S16" t="n">
-        <v>2178.382964033126</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="T16" t="n">
-        <v>1958.704181747508</v>
+        <v>2209.733717050076</v>
       </c>
       <c r="U16" t="n">
-        <v>1669.627968062235</v>
+        <v>1920.657503364803</v>
       </c>
       <c r="V16" t="n">
-        <v>1414.943479856348</v>
+        <v>1665.973015158916</v>
       </c>
       <c r="W16" t="n">
-        <v>1125.526309819387</v>
+        <v>1376.555845121956</v>
       </c>
       <c r="X16" t="n">
-        <v>971.9835620028059</v>
+        <v>1148.566294223938</v>
       </c>
       <c r="Y16" t="n">
-        <v>971.9835620028059</v>
+        <v>927.7737150804081</v>
       </c>
     </row>
     <row r="17">
@@ -5501,40 +5501,40 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F17" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G17" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H17" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160684</v>
       </c>
       <c r="I17" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J17" t="n">
-        <v>373.3442236507205</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K17" t="n">
-        <v>842.9746074384032</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L17" t="n">
-        <v>1513.293909294971</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M17" t="n">
-        <v>2234.298471234009</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N17" t="n">
-        <v>2971.583449151116</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O17" t="n">
-        <v>3654.445485610256</v>
+        <v>3603.645964259458</v>
       </c>
       <c r="P17" t="n">
-        <v>4202.751434297605</v>
+        <v>4151.951912946806</v>
       </c>
       <c r="Q17" t="n">
-        <v>4566.333620403612</v>
+        <v>4515.534099052813</v>
       </c>
       <c r="R17" t="n">
         <v>4692.417407580351</v>
@@ -5592,22 +5592,22 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J18" t="n">
-        <v>144.0153224630465</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="K18" t="n">
-        <v>474.5240650264058</v>
+        <v>302.0892292003572</v>
       </c>
       <c r="L18" t="n">
-        <v>965.2563978701578</v>
+        <v>792.8215620441084</v>
       </c>
       <c r="M18" t="n">
-        <v>965.2563978701578</v>
+        <v>1384.839916296236</v>
       </c>
       <c r="N18" t="n">
-        <v>1587.352361269495</v>
+        <v>2006.935879695572</v>
       </c>
       <c r="O18" t="n">
-        <v>2134.22883626969</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P18" t="n">
         <v>2553.812354695766</v>
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>562.9550599891011</v>
+        <v>562.9550599890988</v>
       </c>
       <c r="C19" t="n">
-        <v>394.0188770611942</v>
+        <v>394.0188770611919</v>
       </c>
       <c r="D19" t="n">
-        <v>243.9022376488585</v>
+        <v>388.6513892319105</v>
       </c>
       <c r="E19" t="n">
-        <v>95.98914406646534</v>
+        <v>240.7382956495174</v>
       </c>
       <c r="F19" t="n">
         <v>93.84834815160703</v>
@@ -5671,52 +5671,52 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J19" t="n">
-        <v>172.8304710411611</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K19" t="n">
-        <v>432.4591980117251</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L19" t="n">
-        <v>820.2210160948597</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M19" t="n">
-        <v>1239.450608139319</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N19" t="n">
-        <v>1654.146473931027</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O19" t="n">
-        <v>2021.168930946057</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P19" t="n">
-        <v>2311.699365782261</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q19" t="n">
-        <v>2429.412499335697</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R19" t="n">
-        <v>2429.412499335697</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="S19" t="n">
-        <v>2246.242309074627</v>
+        <v>2246.242309074625</v>
       </c>
       <c r="T19" t="n">
-        <v>2026.563526789009</v>
+        <v>2026.563526789007</v>
       </c>
       <c r="U19" t="n">
-        <v>1737.487313103736</v>
+        <v>1737.487313103734</v>
       </c>
       <c r="V19" t="n">
-        <v>1482.802824897849</v>
+        <v>1482.802824897847</v>
       </c>
       <c r="W19" t="n">
-        <v>1193.385654860888</v>
+        <v>1193.385654860886</v>
       </c>
       <c r="X19" t="n">
-        <v>965.3961039628709</v>
+        <v>965.3961039628687</v>
       </c>
       <c r="Y19" t="n">
-        <v>744.6035248193408</v>
+        <v>744.6035248193385</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2318.26119383137</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C20" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D20" t="n">
         <v>1591.032978284208</v>
@@ -5738,7 +5738,7 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F20" t="n">
-        <v>794.2588208963564</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G20" t="n">
         <v>380.2757138127629</v>
@@ -5750,22 +5750,22 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J20" t="n">
-        <v>373.34422365072</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K20" t="n">
-        <v>842.974607438402</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L20" t="n">
-        <v>1462.494387944177</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M20" t="n">
-        <v>2183.498949883215</v>
+        <v>2234.298471234014</v>
       </c>
       <c r="N20" t="n">
-        <v>2920.783927800321</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O20" t="n">
-        <v>3603.64596425946</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P20" t="n">
         <v>4202.751434297606</v>
@@ -5795,7 +5795,7 @@
         <v>3095.000365871303</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.861033895492</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="21">
@@ -5829,25 +5829,25 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J21" t="n">
-        <v>241.496329903453</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="K21" t="n">
-        <v>241.496329903453</v>
+        <v>302.0892292003572</v>
       </c>
       <c r="L21" t="n">
-        <v>241.496329903453</v>
+        <v>792.8215620441084</v>
       </c>
       <c r="M21" t="n">
-        <v>833.5146841555808</v>
+        <v>1384.839916296236</v>
       </c>
       <c r="N21" t="n">
-        <v>1455.610647554917</v>
+        <v>2006.935879695572</v>
       </c>
       <c r="O21" t="n">
-        <v>2002.487122555111</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P21" t="n">
-        <v>2422.070640981187</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.812354695766</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>930.4858260316502</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C22" t="n">
-        <v>930.4858260316502</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="D22" t="n">
-        <v>780.3691866193144</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="E22" t="n">
-        <v>632.4560930369213</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="F22" t="n">
-        <v>485.5661455390109</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="G22" t="n">
-        <v>318.3519507135898</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="H22" t="n">
-        <v>176.4792337520202</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I22" t="n">
         <v>93.84834815160703</v>
@@ -5938,22 +5938,22 @@
         <v>2178.382964033126</v>
       </c>
       <c r="T22" t="n">
-        <v>2178.382964033126</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U22" t="n">
-        <v>1923.369614316045</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V22" t="n">
-        <v>1668.685126110158</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W22" t="n">
-        <v>1379.267956073198</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X22" t="n">
-        <v>1151.27840517518</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y22" t="n">
-        <v>930.4858260316502</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="23">
@@ -5987,19 +5987,19 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J23" t="n">
-        <v>373.34422365072</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K23" t="n">
-        <v>842.974607438402</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L23" t="n">
-        <v>1462.494387944177</v>
+        <v>1513.293909294977</v>
       </c>
       <c r="M23" t="n">
-        <v>2183.498949883215</v>
+        <v>2234.298471234015</v>
       </c>
       <c r="N23" t="n">
-        <v>2920.783927800321</v>
+        <v>2971.583449151121</v>
       </c>
       <c r="O23" t="n">
         <v>3654.445485610259</v>
@@ -6066,25 +6066,25 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J24" t="n">
-        <v>241.496329903453</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="K24" t="n">
-        <v>241.496329903453</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="L24" t="n">
-        <v>241.496329903453</v>
+        <v>373.2380436180325</v>
       </c>
       <c r="M24" t="n">
-        <v>734.6951238849127</v>
+        <v>965.2563978701601</v>
       </c>
       <c r="N24" t="n">
-        <v>1356.791087284249</v>
+        <v>1587.352361269496</v>
       </c>
       <c r="O24" t="n">
-        <v>1903.667562284443</v>
+        <v>2134.22883626969</v>
       </c>
       <c r="P24" t="n">
-        <v>2323.251080710519</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.812354695766</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>784.5128849845607</v>
+        <v>562.9550599890988</v>
       </c>
       <c r="C25" t="n">
-        <v>615.5767020566539</v>
+        <v>394.0188770611919</v>
       </c>
       <c r="D25" t="n">
-        <v>615.5767020566539</v>
+        <v>243.9022376488562</v>
       </c>
       <c r="E25" t="n">
-        <v>549.8252074365081</v>
+        <v>95.98914406646307</v>
       </c>
       <c r="F25" t="n">
-        <v>402.9352599385978</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="G25" t="n">
-        <v>235.7210651131766</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H25" t="n">
         <v>93.84834815160703</v>
@@ -6169,28 +6169,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R25" t="n">
-        <v>2361.553154294196</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="S25" t="n">
-        <v>2178.382964033126</v>
+        <v>2246.242309074625</v>
       </c>
       <c r="T25" t="n">
-        <v>1958.704181747508</v>
+        <v>2026.563526789007</v>
       </c>
       <c r="U25" t="n">
-        <v>1669.627968062235</v>
+        <v>1737.487313103734</v>
       </c>
       <c r="V25" t="n">
-        <v>1414.943479856348</v>
+        <v>1482.802824897847</v>
       </c>
       <c r="W25" t="n">
-        <v>1414.943479856348</v>
+        <v>1193.385654860886</v>
       </c>
       <c r="X25" t="n">
-        <v>1186.953928958331</v>
+        <v>965.3961039628687</v>
       </c>
       <c r="Y25" t="n">
-        <v>966.1613498148005</v>
+        <v>744.6035248193385</v>
       </c>
     </row>
     <row r="26">
@@ -6212,40 +6212,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191924</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>923.067041434951</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N27" t="n">
-        <v>2148.043492616109</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>662.1522880254209</v>
+        <v>1057.955258982919</v>
       </c>
       <c r="C28" t="n">
-        <v>493.2161050975141</v>
+        <v>889.0190760550122</v>
       </c>
       <c r="D28" t="n">
-        <v>343.0994656851784</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>343.0994656851784</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851784</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
@@ -6385,10 +6385,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>1460.396302956689</v>
       </c>
       <c r="Y28" t="n">
-        <v>843.8007528556607</v>
+        <v>1239.603723813159</v>
       </c>
     </row>
     <row r="29">
@@ -6449,64 +6449,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6534,28 +6534,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273898</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803936</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516141</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>949.9304447718135</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718135</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263526</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356194</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232836</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487567</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U31" t="n">
-        <v>2197.062545487567</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V31" t="n">
-        <v>1942.37805728168</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W31" t="n">
-        <v>1652.96088724472</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X31" t="n">
-        <v>1501.108204237296</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="32">
@@ -6689,7 +6689,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6713,7 +6713,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6777,25 +6777,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>119.290296770379</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876688</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>580.8993044876688</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6926,28 +6926,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7014,28 +7014,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319328</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
         <v>268.5553036345476</v>
@@ -7160,22 +7160,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7251,25 +7251,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319328</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150027</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384023</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7406,22 +7406,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7430,7 +7430,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7485,16 +7485,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>119.290296770379</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M42" t="n">
         <v>716.6687843969308</v>
@@ -7543,10 +7543,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
         <v>656.9646031150023</v>
@@ -7555,16 +7555,16 @@
         <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>198.0944824954149</v>
@@ -7588,16 +7588,16 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U43" t="n">
         <v>1978.840049838286</v>
@@ -7731,22 +7731,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.555303634547</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954148</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380727</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7819,10 +7819,10 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
         <v>2639.297491717215</v>
@@ -7831,13 +7831,13 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -7846,7 +7846,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8307,13 +8307,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783522</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8453,7 +8453,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747314</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8687,25 +8687,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>48.48373587984088</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>61.30198477867413</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -8939,7 +8939,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>51.31264782908238</v>
+        <v>51.31264782909113</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -9167,7 +9167,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>51.31264782908283</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>51.31264782909091</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>51.31264782909102</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>51.31264782908966</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -9641,7 +9641,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>51.31264782909182</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9650,7 +9650,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>51.31264782909057</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9881,10 +9881,10 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N26" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10358,7 +10358,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10823,7 +10823,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -22544,10 +22544,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>57.49389559174358</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22556,10 +22556,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>204.4291497342085</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22610,10 +22610,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>132.8783315365008</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>83.08241225715622</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>83.08241225715587</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>54.34040723538448</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>12.21767986945133</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>9.663381206337363e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>102.4171615007187</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>73.7023350506216</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23893,13 +23893,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>143.3016600672238</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>143.3016600672215</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5420528771669</v>
@@ -23908,7 +23908,7 @@
         <v>140.4539897919539</v>
       </c>
       <c r="I19" t="n">
-        <v>81.80457674440895</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>67.18075159108344</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>59.08139078076096</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,10 +24178,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>33.72223532851055</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>81.33998297262487</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>143.3016600672238</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I25" t="n">
-        <v>81.80457674440902</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24604,19 +24604,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>40.30478226780122</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24658,16 +24658,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>80.44045370237458</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24850,13 +24850,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>110.003342051665</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,16 +24883,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>75.37549921168781</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25075,22 +25075,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>123.7828069546817</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25324,7 +25324,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>-3.197442310920451e-13</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1174632.177305595</v>
+        <v>1174632.177305596</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1174632.177305596</v>
+        <v>1174632.177305595</v>
       </c>
     </row>
     <row r="12">
@@ -26323,10 +26323,10 @@
         <v>236265.064127489</v>
       </c>
       <c r="F2" t="n">
-        <v>242004.8931355678</v>
+        <v>242004.8931355677</v>
       </c>
       <c r="G2" t="n">
-        <v>242004.8931355678</v>
+        <v>242004.8931355677</v>
       </c>
       <c r="H2" t="n">
         <v>242004.8931355677</v>
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>720985.2833793799</v>
+        <v>720985.2833793794</v>
       </c>
       <c r="F3" t="n">
-        <v>212048.212652155</v>
+        <v>212048.2126521537</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>183669.0093792222</v>
+        <v>183669.0093792226</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139029.453522524</v>
+        <v>139029.4535225241</v>
       </c>
       <c r="C4" t="n">
         <v>201064.5059277315</v>
       </c>
       <c r="D4" t="n">
-        <v>201064.5059277316</v>
+        <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>23899.76556585628</v>
+        <v>23899.76556585629</v>
       </c>
       <c r="F4" t="n">
-        <v>5781.971894854996</v>
+        <v>5781.971894855118</v>
       </c>
       <c r="G4" t="n">
-        <v>5781.971894855002</v>
+        <v>5781.971894855114</v>
       </c>
       <c r="H4" t="n">
-        <v>5781.971894855149</v>
+        <v>5781.971894855116</v>
       </c>
       <c r="I4" t="n">
-        <v>5781.971894855111</v>
+        <v>5781.971894855127</v>
       </c>
       <c r="J4" t="n">
-        <v>5067.592601670462</v>
+        <v>5067.592601670443</v>
       </c>
       <c r="K4" t="n">
-        <v>5067.592601670533</v>
+        <v>5067.592601670439</v>
       </c>
       <c r="L4" t="n">
-        <v>5067.592601670442</v>
+        <v>5067.592601670443</v>
       </c>
       <c r="M4" t="n">
-        <v>13058.4518647639</v>
+        <v>13058.45186476392</v>
       </c>
       <c r="N4" t="n">
         <v>13058.45186476391</v>
       </c>
       <c r="O4" t="n">
-        <v>13058.45186476392</v>
+        <v>13058.45186476391</v>
       </c>
       <c r="P4" t="n">
-        <v>13058.45186476389</v>
+        <v>13058.4518647639</v>
       </c>
     </row>
     <row r="5">
@@ -26473,16 +26473,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340943</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>95081.87666815524</v>
       </c>
       <c r="F5" t="n">
-        <v>100930.0394572386</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="G5" t="n">
-        <v>100930.0394572386</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="H5" t="n">
         <v>100930.0394572385</v>
@@ -26519,40 +26519,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-598150.0278097597</v>
+        <v>-598421.7457094978</v>
       </c>
       <c r="C6" t="n">
-        <v>-37611.05303185614</v>
+        <v>-37611.05303185605</v>
       </c>
       <c r="D6" t="n">
-        <v>-37611.0530318559</v>
+        <v>-37611.05303185611</v>
       </c>
       <c r="E6" t="n">
-        <v>-603701.8614859025</v>
+        <v>-603785.590376167</v>
       </c>
       <c r="F6" t="n">
-        <v>-76755.33086868076</v>
+        <v>-76791.22785054396</v>
       </c>
       <c r="G6" t="n">
-        <v>135292.8817834742</v>
+        <v>135256.9848016097</v>
       </c>
       <c r="H6" t="n">
-        <v>135292.8817834751</v>
+        <v>135256.9848016097</v>
       </c>
       <c r="I6" t="n">
-        <v>135292.881783474</v>
+        <v>135256.9848016097</v>
       </c>
       <c r="J6" t="n">
-        <v>-47715.15189779796</v>
+        <v>-47749.88982323397</v>
       </c>
       <c r="K6" t="n">
-        <v>135953.8574814243</v>
+        <v>135919.1195559885</v>
       </c>
       <c r="L6" t="n">
-        <v>135953.8574814242</v>
+        <v>135919.1195559885</v>
       </c>
       <c r="M6" t="n">
-        <v>-13644.96614316355</v>
+        <v>-13644.96614316347</v>
       </c>
       <c r="N6" t="n">
         <v>130089.9632406055</v>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="3">
@@ -26741,16 +26741,16 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170863</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1358.041048716387</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="G3" t="n">
-        <v>1358.041048716387</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="H3" t="n">
         <v>1358.041048716386</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1173.104351895088</v>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26966,22 +26966,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762121</v>
+        <v>712.0330363762117</v>
       </c>
       <c r="F3" t="n">
-        <v>268.2643481230889</v>
+        <v>268.2643481230873</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>-1.527932760848991e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>9.934451625287693</v>
+        <v>9.934451625288148</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.8170791405325</v>
+        <v>498.8170791405322</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.8170791405325</v>
+        <v>498.8170791405322</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.8170791405325</v>
+        <v>498.8170791405322</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27388,7 +27388,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>96.89231556931202</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>236.8527691419682</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27549,16 +27549,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.90109786623003</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -27591,7 +27591,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>101.8393936825969</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27616,10 +27616,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,7 +27628,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>166.2519115883594</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27661,22 +27661,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>77.34781565309157</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27777,25 +27777,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>140.8569130975404</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>86.05160619575685</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27828,7 +27828,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>119.209415961476</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27898,16 +27898,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>157.5465377523935</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,7 +27916,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28017,22 +28017,22 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>58.58971553211479</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853704</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491435</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28065,7 +28065,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,10 +28074,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>217.3206500666357</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>7.389644451905042e-13</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28509,7 +28509,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>-2.450898743215172e-12</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -28867,7 +28867,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.125499693443999e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2.103206497849897e-12</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="41">
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
   </sheetData>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340044</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140998</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554461</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727434</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081576</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630667</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405365</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338302</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119863</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954665</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044136</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633789</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727379</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473547</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472035</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141102</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188907</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890687</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396469</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478006</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.870296998312</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736698</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923045</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479576</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639064</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034977</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131471</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372662</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619148</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078604</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644436</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492003</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813573</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302232</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246923</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666593</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175835</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383792</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678003</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701161</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197221</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315607</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377432</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122289</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704061</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>463.364970687407</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K14" t="n">
-        <v>694.4639760830438</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364274</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M14" t="n">
-        <v>958.6336695293319</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229619</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O14" t="n">
-        <v>919.8578442086962</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687533</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148613</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R14" t="n">
-        <v>342.9428985987167</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S14" t="n">
-        <v>124.4074789854259</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T14" t="n">
-        <v>23.89879272665722</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4367569201901945</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.921069425540908</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H15" t="n">
-        <v>28.21138103088193</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>471.688653684823</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>634.2436048745732</v>
+        <v>187.8760176396507</v>
       </c>
       <c r="M15" t="n">
-        <v>512.3180494032174</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927647</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P15" t="n">
-        <v>557.796143198246</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q15" t="n">
-        <v>372.8719498286956</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.25758340862166</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T15" t="n">
-        <v>11.77395965821094</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1921756201013756</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.448926481291846</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H16" t="n">
-        <v>21.7731827154857</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284934</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J16" t="n">
-        <v>173.1391022273335</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K16" t="n">
-        <v>284.5207311900889</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L16" t="n">
-        <v>364.0885788640622</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M16" t="n">
-        <v>383.8803574265026</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416878</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O16" t="n">
-        <v>346.1446266465966</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P16" t="n">
-        <v>296.1865264282427</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q16" t="n">
-        <v>205.0641983561745</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R16" t="n">
-        <v>110.112639786086</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851333</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T16" t="n">
-        <v>10.4635949655197</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1335778080704645</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.459461502377432</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H17" t="n">
-        <v>55.91171011122289</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704061</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>463.364970687407</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K17" t="n">
-        <v>694.4639760830438</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L17" t="n">
-        <v>861.5439710364274</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M17" t="n">
-        <v>958.6336695293319</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N17" t="n">
-        <v>974.1453645229619</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O17" t="n">
-        <v>919.8578442086962</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P17" t="n">
-        <v>785.0773883687533</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q17" t="n">
-        <v>589.5604233148613</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R17" t="n">
-        <v>342.9428985987167</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S17" t="n">
-        <v>124.4074789854259</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T17" t="n">
-        <v>23.89879272665722</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4367569201901945</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,34 +32303,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.921069425540908</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H18" t="n">
-        <v>28.21138103088193</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>177.5113380923631</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>471.688653684823</v>
+        <v>348.1857632660258</v>
       </c>
       <c r="L18" t="n">
-        <v>634.2436048745732</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N18" t="n">
-        <v>759.7214730927647</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O18" t="n">
-        <v>694.9967242426213</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P18" t="n">
-        <v>557.796143198246</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32339,13 +32339,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.25758340862166</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T18" t="n">
-        <v>11.77395965821094</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1921756201013756</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.448926481291846</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H19" t="n">
-        <v>21.7731827154857</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I19" t="n">
-        <v>73.64589818284934</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J19" t="n">
-        <v>173.1391022273335</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K19" t="n">
-        <v>284.5207311900889</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L19" t="n">
-        <v>364.0885788640622</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M19" t="n">
-        <v>383.8803574265026</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N19" t="n">
-        <v>374.7525405416878</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O19" t="n">
-        <v>346.1446266465966</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P19" t="n">
-        <v>296.1865264282427</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q19" t="n">
-        <v>205.0641983561745</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R19" t="n">
-        <v>110.112639786086</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S19" t="n">
-        <v>42.67810967851333</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T19" t="n">
-        <v>10.4635949655197</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1335778080704645</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,46 +32461,46 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H20" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K20" t="n">
-        <v>694.4639760830431</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L20" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M20" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N20" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O20" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P20" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q20" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R20" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S20" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T20" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U20" t="n">
         <v>0.436756920190194</v>
@@ -32543,43 +32543,43 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H21" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>275.9770021735818</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>348.1857632660258</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M21" t="n">
-        <v>740.1323715504302</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N21" t="n">
-        <v>759.7214730927639</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O21" t="n">
-        <v>694.9967242426205</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P21" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>273.0542121815558</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.25758340862161</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T21" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U21" t="n">
         <v>0.1921756201013754</v>
@@ -32625,7 +32625,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I22" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J22" t="n">
         <v>173.1391022273333</v>
@@ -32634,16 +32634,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L22" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M22" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N22" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O22" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P22" t="n">
         <v>296.1865264282424</v>
@@ -32655,7 +32655,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S22" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T22" t="n">
         <v>10.46359496551969</v>
@@ -32698,46 +32698,46 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H23" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K23" t="n">
-        <v>694.4639760830431</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L23" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M23" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N23" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O23" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P23" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q23" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R23" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S23" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T23" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U23" t="n">
         <v>0.436756920190194</v>
@@ -32780,43 +32780,43 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H24" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>275.9770021735818</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>420.7661933823242</v>
       </c>
       <c r="M24" t="n">
-        <v>640.3146339032908</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N24" t="n">
-        <v>759.7214730927639</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O24" t="n">
-        <v>694.9967242426205</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P24" t="n">
-        <v>557.7961431982454</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q24" t="n">
-        <v>372.8719498286953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.25758340862161</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T24" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U24" t="n">
         <v>0.1921756201013754</v>
@@ -32862,7 +32862,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I25" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J25" t="n">
         <v>173.1391022273333</v>
@@ -32871,16 +32871,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L25" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M25" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N25" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O25" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P25" t="n">
         <v>296.1865264282424</v>
@@ -32892,7 +32892,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S25" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T25" t="n">
         <v>10.46359496551969</v>
@@ -32935,37 +32935,37 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -32974,10 +32974,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33023,37 +33023,37 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862119</v>
+        <v>379.4203056753705</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071783</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>551.7051287319857</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
         <v>0.1935814387275954</v>
@@ -33099,28 +33099,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
         <v>206.5643005515927</v>
@@ -33129,7 +33129,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33172,37 +33172,37 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043725</v>
@@ -33211,10 +33211,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33257,28 +33257,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>513.0745614164392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437242</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33287,10 +33287,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
         <v>0.1935814387275954</v>
@@ -33336,28 +33336,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
         <v>206.5643005515927</v>
@@ -33366,7 +33366,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33497,28 +33497,28 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>163.5723821283055</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33734,31 +33734,31 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>750.6021172789107</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33971,13 +33971,13 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,13 +33986,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34205,19 +34205,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>164.2853229338207</v>
+        <v>277.4567226539314</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34451,10 +34451,10 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>244.0266243181833</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34463,13 +34463,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35027,13 +35027,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181309</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343418</v>
+        <v>297.2230414343417</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435299</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060962</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492234</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.563508753045</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116796</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898688</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770683</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713856</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262936</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338901</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245896</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735645</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535805</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713947</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850084</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535654</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>148.3708461458879</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.866414655798</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873141</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,25 +35407,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>556.53673676806</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>460.063970998046</v>
       </c>
       <c r="Q11" t="n">
         <v>250.7943048037195</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>282.3190661607207</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380633</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L14" t="n">
-        <v>625.7775560664402</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M14" t="n">
-        <v>728.2874363020592</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N14" t="n">
-        <v>744.732300926371</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O14" t="n">
-        <v>741.0722806160918</v>
+        <v>741.0722806160995</v>
       </c>
       <c r="P14" t="n">
-        <v>553.8443926134837</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q14" t="n">
-        <v>367.2547334404118</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R14" t="n">
-        <v>127.3573607845846</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>333.847214710464</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>495.689225094699</v>
+        <v>49.32163785977649</v>
       </c>
       <c r="M15" t="n">
-        <v>370.1840154811991</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094314</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P15" t="n">
-        <v>423.8217357839158</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q15" t="n">
-        <v>232.8901757426741</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211066069</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K16" t="n">
-        <v>262.2512393642036</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L16" t="n">
-        <v>391.6786041243784</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M16" t="n">
-        <v>423.4642343883432</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N16" t="n">
-        <v>418.8847129209164</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O16" t="n">
-        <v>370.7297545606363</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P16" t="n">
-        <v>293.4650856931362</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q16" t="n">
-        <v>118.9021551044801</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>282.3190661607207</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K17" t="n">
-        <v>474.3741250380633</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L17" t="n">
-        <v>677.090203895523</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M17" t="n">
-        <v>728.2874363020592</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N17" t="n">
-        <v>744.732300926371</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O17" t="n">
-        <v>689.7596327870094</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P17" t="n">
-        <v>553.8443926134837</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q17" t="n">
-        <v>367.2547334404118</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R17" t="n">
-        <v>127.3573607845846</v>
+        <v>178.670008613675</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>50.67371142569645</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>333.847214710464</v>
+        <v>210.3443242916669</v>
       </c>
       <c r="L18" t="n">
-        <v>495.689225094699</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N18" t="n">
-        <v>628.3797610094314</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O18" t="n">
-        <v>552.4004797981769</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P18" t="n">
-        <v>423.8217357839158</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>79.77992211066069</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K19" t="n">
-        <v>262.2512393642061</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L19" t="n">
-        <v>391.6786041243784</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M19" t="n">
-        <v>423.4642343883432</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N19" t="n">
-        <v>418.8847129209164</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O19" t="n">
-        <v>370.7297545606363</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P19" t="n">
-        <v>293.4650856931362</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q19" t="n">
-        <v>118.9021551044801</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K20" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L20" t="n">
-        <v>625.7775560664393</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M20" t="n">
-        <v>728.2874363020583</v>
+        <v>779.6000841311491</v>
       </c>
       <c r="N20" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O20" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P20" t="n">
-        <v>605.1570404425727</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q20" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R20" t="n">
-        <v>127.3573607845842</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>149.1393755069151</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>210.3443242916669</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M21" t="n">
-        <v>597.9983376284119</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N21" t="n">
-        <v>628.3797610094306</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O21" t="n">
-        <v>552.4004797981761</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P21" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>133.0724380955343</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K22" t="n">
         <v>262.2512393642057</v>
@@ -36285,19 +36285,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M22" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N22" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O22" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P22" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q22" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K23" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L23" t="n">
-        <v>625.7775560664393</v>
+        <v>677.0902038955309</v>
       </c>
       <c r="M23" t="n">
-        <v>728.2874363020583</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N23" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O23" t="n">
-        <v>741.0722806160991</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P23" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q23" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R23" t="n">
-        <v>127.3573607845842</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>149.1393755069151</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>282.21181360245</v>
       </c>
       <c r="M24" t="n">
-        <v>498.1805999812725</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N24" t="n">
-        <v>628.3797610094306</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O24" t="n">
-        <v>552.4004797981761</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P24" t="n">
-        <v>423.8217357839152</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q24" t="n">
-        <v>232.8901757426738</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K25" t="n">
         <v>262.2512393642057</v>
@@ -36522,19 +36522,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M25" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N25" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O25" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P25" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q25" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36589,31 +36589,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193534</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641936</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="N27" t="n">
-        <v>633.937336923845</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>409.1088842875412</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36759,19 +36759,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,31 +36826,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36905,28 +36905,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>374.520181636565</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992797</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
         <v>264.3325884096349</v>
@@ -36996,19 +36996,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37078,7 +37078,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
         <v>696.488651224316</v>
@@ -37090,7 +37090,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>25.73094315394657</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>619.2604051955774</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,7 +37543,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,13 +37634,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37853,19 +37853,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>25.73094315394657</v>
+        <v>138.9023428740572</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -38099,10 +38099,10 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>101.892590396165</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38111,13 +38111,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
         <v>288.6172359016746</v>
